--- a/excel_time_series.xlsx
+++ b/excel_time_series.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\바탕 화면\고려대 통계학과\2022년 2학기\오퍼레이션스관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\바탕 화면\coding1\operations_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8694A529-79CD-4BC4-8678-B5A799378ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352F49B4-527B-4F8A-AC1F-5FEB2D09FC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58E55712-C893-4B26-A013-06C7DF42A74B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Period</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,18 @@
     <t>Moving Average</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>p=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀을 내려서 계산하는데 있어서 $를 활용해서 값을 조정할 수 있다. (D$20과 같은 형태로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -66,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +91,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -105,7 +126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -113,6 +134,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -167,7 +191,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Excel Time Series</a:t>
+              <a:t>Moving Average</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
@@ -620,7 +644,469 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Weighted Moving Average</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99BC-4A02-9B66-CD7C51D324D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="4">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-99BC-4A02-9B66-CD7C51D324D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="808107664"/>
+        <c:axId val="808108080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="808107664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="808108080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="808108080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="808107664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1176,20 +1662,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>659130</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>537210</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:colOff>544830</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1209,6 +2211,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6E6ED5-1CB8-DFB3-A299-6EAA8D1651F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1514,10 +2552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3B0EE8-79DB-48FB-866F-2D1F66102EEF}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1728,7 +2766,7 @@
         <v>43</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" ref="H10:H15" si="1">(G7+G8+G9)/3</f>
+        <f t="shared" ref="H10:H14" si="1">(G7+G8+G9)/3</f>
         <v>41.333333333333336</v>
       </c>
       <c r="I10" s="2">
@@ -1834,6 +2872,183 @@
       <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>42.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2">
+        <f>(D$20*B19+D$21*B20+D$22*B21+D$23*B22)</f>
+        <v>42.8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ref="C24:C30" si="2">(D$20*B20+D$21*B21+D$22*B22+D$23*B23)</f>
+        <v>42.3</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>41.1</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="2"/>
+        <v>42.3</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>38</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="2"/>
+        <v>44.400000000000006</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="2"/>
+        <v>42.300000000000004</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="2"/>
+        <v>41.900000000000006</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
